--- a/data/apo_app_data.xlsx
+++ b/data/apo_app_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t xml:space="preserve">study_author_year</t>
   </si>
@@ -77,6 +77,12 @@
     <t xml:space="preserve">link_author</t>
   </si>
   <si>
+    <t xml:space="preserve">website_links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clearinghouse_links</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ab Ghaffar 2019</t>
   </si>
   <si>
@@ -176,6 +182,12 @@
     <t xml:space="preserve">https://uu.diva-portal.org/smash/person.jsf?pid=authority-person%3A21486&amp;dswid=2885</t>
   </si>
   <si>
+    <t xml:space="preserve">https://friendsresilience.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdc.thehcn.net/promisepractice/index/view?pid=3992</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attwood 2012</t>
   </si>
   <si>
@@ -392,6 +404,12 @@
     <t xml:space="preserve">https://researchportalplus.anu.edu.au/en/persons/alison-calear</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.ecouch.com.au/info/about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beacon.anu.edu.au/service/website/view/364/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cluster randomised controlled trial of the e-couch Anxiety and Worry program in schools</t>
   </si>
   <si>
@@ -527,6 +545,12 @@
     <t xml:space="preserve">https://www.uned.es/universidad/docentes/en/psicologia/rosa-maria-valiente-garcia.html</t>
   </si>
   <si>
+    <t xml:space="preserve">https://camat.psy.miami.edu/up-c-and-up-a-training/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cebc4cw.org/program/unified-protocol-for-the-transdiagnostic-treatment-of-emotional-disorders-in-adolescents-up-a/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hunt 2009</t>
   </si>
   <si>
@@ -710,6 +734,12 @@
     <t xml:space="preserve">https://researchers.mq.edu.au/en/persons/ron-rapee</t>
   </si>
   <si>
+    <t xml:space="preserve">https://aifs.gov.au/research_programs/evidence-and-evaluation-support/cfc-program-profiles/cool-kids#:~:text=Cool%20Kids%201%20About%20the%20program%20Cool%20Kids,early%20bird%29.%20...%205%20Evaluation%20and%20effectiveness%20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdc.thehcn.net/promisepractice/index/view?pid=4025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miller 2010</t>
   </si>
   <si>
@@ -746,6 +776,9 @@
     <t xml:space="preserve">https://ecps.educ.ubc.ca/lynn-miller/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://twd.keltymentalhealth.ca/#:~:text=Taming%20Worry%20Dragons%20is%20a%20creative%20approach%20to,developmental%20level%20and%20interests%20of%20the%20child%20involved.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miller 2011</t>
   </si>
   <si>
@@ -854,6 +887,12 @@
     <t xml:space="preserve">https://staffportal.curtin.edu.au/staff/profile/view/rosanna-rooney-8d318d8f/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://aussieoptimism.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://positivechoices.org.au/teachers/aussie-optimism-program</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roberts 2010</t>
   </si>
   <si>
@@ -1110,6 +1149,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S221478291400013X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thiswayup.org.au/programs/generalised-anxiety-program/ |~| https://thiswayup.org.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beacon.anu.edu.au/service/website/view/198/2 |~| https://www.beacon.anu.edu.au/service/website/view/333/1</t>
   </si>
 </sst>
 </file>
@@ -1505,2254 +1550,2470 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="U4"/>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>68</v>
-      </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="U5"/>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>80</v>
-      </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="T6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U6"/>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="U7"/>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
         <v>106</v>
       </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>102</v>
-      </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U8"/>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="T9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U9" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="V9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s">
         <v>126</v>
       </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" t="s">
         <v>129</v>
       </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="V10" t="s">
         <v>130</v>
       </c>
-      <c r="N10" t="s">
+      <c r="W10" t="s">
         <v>131</v>
-      </c>
-      <c r="O10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S10" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" t="s">
-        <v>133</v>
-      </c>
-      <c r="U10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="U11" t="s">
-        <v>147</v>
+        <v>153</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="U12" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="V12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="R13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="S13" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="T13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U13" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="V13" t="s">
+        <v>177</v>
+      </c>
+      <c r="W13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" t="s">
         <v>174</v>
       </c>
-      <c r="I14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" t="s">
-        <v>176</v>
-      </c>
-      <c r="O14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" t="s">
-        <v>177</v>
-      </c>
-      <c r="S14" t="s">
-        <v>168</v>
-      </c>
       <c r="T14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="U14" t="s">
-        <v>179</v>
+        <v>187</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="U15"/>
+      <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="R16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="U16" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R17" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="S17" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="T17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="U17"/>
+      <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H18" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
+        <v>221</v>
+      </c>
+      <c r="S18" t="s">
         <v>213</v>
       </c>
-      <c r="S18" t="s">
-        <v>205</v>
-      </c>
       <c r="T18" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="U18"/>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="U19"/>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T20" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="U20" t="s">
-        <v>231</v>
+        <v>239</v>
+      </c>
+      <c r="V20" t="s">
+        <v>240</v>
+      </c>
+      <c r="W20" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N21" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O21" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="R21" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="S21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T21" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="U21" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="V21" t="s">
+        <v>254</v>
+      </c>
+      <c r="W21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" t="s">
         <v>244</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>245</v>
       </c>
-      <c r="C22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" t="s">
-        <v>235</v>
-      </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="R22" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="S22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T22" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="U22" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" t="s">
         <v>244</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>245</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>245</v>
+      </c>
+      <c r="R23" t="s">
+        <v>267</v>
+      </c>
+      <c r="S23" t="s">
+        <v>113</v>
+      </c>
+      <c r="T23" t="s">
+        <v>268</v>
+      </c>
+      <c r="U23" t="s">
         <v>253</v>
       </c>
-      <c r="D23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>254</v>
-      </c>
-      <c r="I23" t="s">
-        <v>255</v>
-      </c>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>235</v>
-      </c>
-      <c r="R23" t="s">
-        <v>256</v>
-      </c>
-      <c r="S23" t="s">
-        <v>109</v>
-      </c>
-      <c r="T23" t="s">
-        <v>257</v>
-      </c>
-      <c r="U23" t="s">
-        <v>243</v>
+      <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="s">
         <v>244</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>245</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" t="s">
+        <v>269</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>271</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>245</v>
+      </c>
+      <c r="R24" t="s">
+        <v>267</v>
+      </c>
+      <c r="S24" t="s">
+        <v>113</v>
+      </c>
+      <c r="T24" t="s">
+        <v>268</v>
+      </c>
+      <c r="U24" t="s">
         <v>253</v>
       </c>
-      <c r="D24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>254</v>
-      </c>
-      <c r="I24" t="s">
-        <v>258</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>259</v>
-      </c>
-      <c r="L24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" t="s">
-        <v>260</v>
-      </c>
-      <c r="N24" t="s">
-        <v>176</v>
-      </c>
-      <c r="O24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>235</v>
-      </c>
-      <c r="R24" t="s">
-        <v>256</v>
-      </c>
-      <c r="S24" t="s">
-        <v>109</v>
-      </c>
-      <c r="T24" t="s">
-        <v>257</v>
-      </c>
-      <c r="U24" t="s">
-        <v>243</v>
+      <c r="V24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="I25" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="R25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T25" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="U25" t="s">
-        <v>269</v>
+        <v>280</v>
+      </c>
+      <c r="V25" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="N26" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R26" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="U26" t="s">
-        <v>279</v>
+        <v>290</v>
+      </c>
+      <c r="V26" t="s">
+        <v>291</v>
+      </c>
+      <c r="W26" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="O27" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R27" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="U27"/>
+      <c r="V27" t="s">
+        <v>291</v>
+      </c>
+      <c r="W27" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="I28" t="s">
+        <v>304</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>305</v>
+      </c>
+      <c r="N28" t="s">
+        <v>306</v>
+      </c>
+      <c r="O28" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+      <c r="R28" t="s">
+        <v>308</v>
+      </c>
+      <c r="S28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28" t="s">
+        <v>309</v>
+      </c>
+      <c r="U28"/>
+      <c r="V28" t="s">
         <v>291</v>
       </c>
-      <c r="J28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="W28" t="s">
         <v>292</v>
       </c>
-      <c r="N28" t="s">
-        <v>293</v>
-      </c>
-      <c r="O28" t="s">
-        <v>294</v>
-      </c>
-      <c r="P28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>80</v>
-      </c>
-      <c r="R28" t="s">
-        <v>295</v>
-      </c>
-      <c r="S28" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" t="s">
-        <v>296</v>
-      </c>
-      <c r="U28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D29" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" t="s">
+        <v>315</v>
+      </c>
+      <c r="J29" t="s">
+        <v>316</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>317</v>
+      </c>
+      <c r="N29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>314</v>
+      </c>
+      <c r="R29" t="s">
+        <v>185</v>
+      </c>
+      <c r="S29" t="s">
         <v>174</v>
       </c>
-      <c r="I29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J29" t="s">
-        <v>303</v>
-      </c>
-      <c r="K29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" t="s">
-        <v>304</v>
-      </c>
-      <c r="N29" t="s">
-        <v>49</v>
-      </c>
-      <c r="O29" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>301</v>
-      </c>
-      <c r="R29" t="s">
-        <v>177</v>
-      </c>
-      <c r="S29" t="s">
-        <v>168</v>
-      </c>
       <c r="T29" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="U29"/>
+      <c r="V29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="N30" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="O30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R30" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="S30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="U30" t="s">
-        <v>279</v>
+        <v>290</v>
+      </c>
+      <c r="V30" t="s">
+        <v>291</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="I31" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q31" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="R31" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T31" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="U31" t="s">
-        <v>322</v>
+        <v>335</v>
+      </c>
+      <c r="V31" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="R32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="U32"/>
+      <c r="V32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I33" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="J33" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N33" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="O33" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="U33" t="s">
-        <v>337</v>
+        <v>350</v>
+      </c>
+      <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E34" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="I34" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N34" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="O34" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="R34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S34" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="T34" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="U34" t="s">
-        <v>348</v>
+        <v>361</v>
+      </c>
+      <c r="V34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D35" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="I35" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="N35" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="O35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R35" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="S35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="U35" t="s">
-        <v>357</v>
+        <v>370</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I36" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="N36" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="O36" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R36" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="S36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="T36" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="U36" t="s">
-        <v>179</v>
+        <v>187</v>
+      </c>
+      <c r="V36" t="s">
+        <v>379</v>
+      </c>
+      <c r="W36" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
